--- a/Trade Off.xlsx
+++ b/Trade Off.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ties\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF5BDBF-70E1-4E70-A57C-969D65BA1970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED562E3-C26C-4AC6-91A7-F87AADDC7BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="148">
   <si>
     <t>CON-1</t>
   </si>
@@ -251,9 +251,6 @@
     <t>1; double fuselage aircraft are less stable due to boom flexibility (cite) and flutter</t>
   </si>
   <si>
-    <t>2: comparable to conventional configuration</t>
-  </si>
-  <si>
     <t>1; spiral and dutch roll stability problems</t>
   </si>
   <si>
@@ -350,21 +347,12 @@
     <t>3; landing gear track can be larger so more uneven terrains can be traversed</t>
   </si>
   <si>
-    <t>2: little surface area, so good drag performance</t>
-  </si>
-  <si>
-    <t>2: comparable to conventional configuration, more surface area but also less tip vortices</t>
-  </si>
-  <si>
     <t>1; military drones often have pusher propellor, which migth come across as unfriendly</t>
   </si>
   <si>
     <t>1; canard must be high up on the fuselage to have sufficient clearance</t>
   </si>
   <si>
-    <t>3: Canard provides positive lift and less tip vortices due to vertical tail</t>
-  </si>
-  <si>
     <t>1; booms may impact pitch angles on landing and take-off due to length</t>
   </si>
   <si>
@@ -483,6 +471,15 @@
   </si>
   <si>
     <t>Criteria</t>
+  </si>
+  <si>
+    <t>2; comparable to conventional configuration, more surface area but also less tip vortices</t>
+  </si>
+  <si>
+    <t>3; Canard provides positive lift and less tip vortices due to vertical tail</t>
+  </si>
+  <si>
+    <t>2; little surface area, so good drag performance</t>
   </si>
 </sst>
 </file>
@@ -2136,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2150,7 +2147,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="150" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B1" s="81" t="s">
         <v>16</v>
@@ -2256,22 +2253,22 @@
         <v>69</v>
       </c>
       <c r="G3" s="87" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3" s="87" t="s">
         <v>69</v>
       </c>
       <c r="I3" s="87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3" s="87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K3" s="87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L3" s="88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N3" s="3">
         <v>2</v>
@@ -2292,34 +2289,34 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D4" s="89" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E4" s="89" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F4" s="89" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G4" s="89" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H4" s="89" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I4" s="89" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J4" s="89" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K4" s="89" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L4" s="89" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
@@ -2340,34 +2337,34 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="88" t="s">
         <v>76</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="88" t="s">
-        <v>77</v>
       </c>
       <c r="N5" s="5">
         <v>0</v>
@@ -2388,34 +2385,34 @@
         <v>7.3499999999999996E-2</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="89" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="E6" s="89" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="F6" s="89" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G6" s="89" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H6" s="89" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I6" s="89" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="K6" s="89" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L6" s="99" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -2428,34 +2425,34 @@
         <v>0.10500000000000001</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D7" s="89" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F7" s="89" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G7" s="89" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H7" s="89" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I7" s="89" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J7" s="89" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K7" s="89" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L7" s="88" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2468,34 +2465,34 @@
         <v>0.10075000000000001</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D8" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="89" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="89" t="s">
-        <v>133</v>
-      </c>
       <c r="G8" s="89" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H8" s="89" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I8" s="87" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J8" s="87" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K8" s="87" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L8" s="88" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
@@ -2508,34 +2505,34 @@
         <v>3.2750000000000001E-2</v>
       </c>
       <c r="C9" s="97" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D9" s="89" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E9" s="89" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F9" s="89" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G9" s="89" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H9" s="89" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I9" s="89" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J9" s="89" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K9" s="87" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L9" s="88" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -2548,34 +2545,34 @@
         <v>4.9750000000000003E-2</v>
       </c>
       <c r="C10" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="98" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="89" t="s">
-        <v>114</v>
-      </c>
       <c r="G10" s="87" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H10" s="89" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I10" s="87" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J10" s="87" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K10" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="88" t="s">
         <v>117</v>
-      </c>
-      <c r="L10" s="88" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2588,34 +2585,34 @@
         <v>4.7850000000000004E-2</v>
       </c>
       <c r="C11" s="86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="89" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E11" s="89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="H11" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="K11" s="87" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L11" s="88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2628,34 +2625,34 @@
         <v>5.6500000000000005E-3</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12" s="87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I12" s="87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J12" s="100" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K12" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L12" s="88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
@@ -2668,34 +2665,34 @@
         <v>3.5250000000000004E-2</v>
       </c>
       <c r="C13" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="87" t="s">
-        <v>115</v>
-      </c>
       <c r="F13" s="87" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G13" s="87" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H13" s="87" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I13" s="87" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J13" s="87" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K13" s="87" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L13" s="88" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -2708,34 +2705,34 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="C14" s="86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="87" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E14" s="87" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F14" s="87" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G14" s="87" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H14" s="87" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I14" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="J14" s="87" t="s">
-        <v>123</v>
-      </c>
       <c r="K14" s="87" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L14" s="99" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -2748,31 +2745,31 @@
         <v>0.16500000000000004</v>
       </c>
       <c r="C15" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="87" t="s">
         <v>81</v>
-      </c>
-      <c r="D15" s="87" t="s">
-        <v>82</v>
       </c>
       <c r="E15" s="87" t="s">
         <v>61</v>
       </c>
       <c r="F15" s="89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="87" t="s">
         <v>61</v>
       </c>
       <c r="H15" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="87" t="s">
-        <v>84</v>
-      </c>
       <c r="J15" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="87" t="s">
         <v>87</v>
-      </c>
-      <c r="K15" s="87" t="s">
-        <v>88</v>
       </c>
       <c r="L15" s="88" t="s">
         <v>67</v>
@@ -2788,39 +2785,39 @@
         <v>4.5000000000000012E-2</v>
       </c>
       <c r="C16" s="114" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="117" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="116" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="116" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="116" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="116" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" s="117" t="s">
+      <c r="K16" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="117" t="s">
-        <v>93</v>
-      </c>
       <c r="L16" s="118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B17" s="148">
         <f>SUM(B2:B16)</f>
@@ -6145,7 +6142,7 @@
       <c r="A7" s="77"/>
       <c r="B7" s="54"/>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D7" s="44">
         <v>0.1</v>
@@ -6156,7 +6153,7 @@
       </c>
       <c r="F7" s="63"/>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I7" s="43">
         <v>0.05</v>
@@ -6179,7 +6176,7 @@
       <c r="A8" s="77"/>
       <c r="B8" s="54"/>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D8" s="44">
         <v>0.1</v>
@@ -6190,7 +6187,7 @@
       </c>
       <c r="F8" s="63"/>
       <c r="H8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I8" s="43">
         <v>0.15</v>
